--- a/_WIP/Jesse/Jesse-Zeiterfassung.xlsx
+++ b/_WIP/Jesse/Jesse-Zeiterfassung.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lazarus\Documents\GitHub\Voodoo\_WIP\Jesse\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12885"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="149">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -441,12 +436,42 @@
   </si>
   <si>
     <t>So., 12.08.2018</t>
+  </si>
+  <si>
+    <t>Home Office</t>
+  </si>
+  <si>
+    <t>Home Office, Sick</t>
+  </si>
+  <si>
+    <t>Sick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home Office </t>
+  </si>
+  <si>
+    <t>Meetings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concepts, Reference </t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>Jesse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assets, Retopology </t>
+  </si>
+  <si>
+    <t>Assets. Retopology</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
@@ -1032,7 +1057,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1042,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,7 +1109,9 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1148,67 +1175,105 @@
       <c r="F6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="11" t="s">
+        <v>143</v>
+      </c>
       <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
+      <c r="B7" s="13">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D7" s="14">
+        <v>1</v>
+      </c>
       <c r="E7" s="9">
         <f t="shared" ref="E7:E12" si="0">(B7-C7)*-24-D7</f>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="G7" s="12" t="s">
+        <v>143</v>
+      </c>
       <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
+      <c r="B8" s="13">
+        <v>0.4375</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="D8" s="14">
+        <v>1</v>
+      </c>
       <c r="E8" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="G8" s="12" t="s">
+        <v>143</v>
+      </c>
       <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
+      <c r="B9" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="D9" s="14">
+        <v>1</v>
+      </c>
       <c r="E9" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+        <v>7</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>144</v>
+      </c>
       <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
+      <c r="B10" s="13">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D10" s="14">
+        <v>1</v>
+      </c>
       <c r="E10" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+        <v>5.5</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>143</v>
+      </c>
       <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1250,7 +1315,7 @@
       </c>
       <c r="E13" s="21">
         <f>SUM(E6:E12)</f>
-        <v>7</v>
+        <v>31.5</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1265,7 +1330,7 @@
       </c>
       <c r="E14" s="22">
         <f>SUM(E13)</f>
-        <v>7</v>
+        <v>31.5</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1426,7 +1491,7 @@
       </c>
       <c r="E24" s="22">
         <f>SUM(E13+E23)</f>
-        <v>7</v>
+        <v>31.5</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1462,75 +1527,125 @@
       <c r="A26" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="23"/>
+      <c r="B26" s="13">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="C26" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="D26" s="23">
+        <v>1</v>
+      </c>
       <c r="E26" s="9">
         <f>(B26-C26)*-24-D26</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
+        <v>5.3333333333333339</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>145</v>
+      </c>
       <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
+      <c r="B27" s="13">
+        <v>0.4375</v>
+      </c>
+      <c r="C27" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="D27" s="14">
+        <v>1</v>
+      </c>
       <c r="E27" s="9">
         <f t="shared" ref="E27:E32" si="2">(B27-C27)*-24-D27</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
+        <v>6.5</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>145</v>
+      </c>
       <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
+      <c r="B28" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C28" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="D28" s="14">
+        <v>1</v>
+      </c>
       <c r="E28" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
+        <v>7</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>145</v>
+      </c>
       <c r="H28" s="12"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
+      <c r="B29" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C29" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="D29" s="14">
+        <v>1</v>
+      </c>
       <c r="E29" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
+        <v>7</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>145</v>
+      </c>
       <c r="H29" s="12"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
+      <c r="B30" s="13">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C30" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="D30" s="14">
+        <v>1</v>
+      </c>
       <c r="E30" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
+        <v>2.5000000000000009</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>145</v>
+      </c>
       <c r="H30" s="12"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1572,7 +1687,7 @@
       </c>
       <c r="E33" s="21">
         <f>SUM(E26:E32)</f>
-        <v>0</v>
+        <v>28.333333333333336</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -1587,7 +1702,7 @@
       </c>
       <c r="E34" s="22">
         <f>SUM(E13+E23+E33)</f>
-        <v>7</v>
+        <v>59.833333333333336</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -1748,7 +1863,7 @@
       </c>
       <c r="E44" s="22">
         <f>SUM(E13+E23+E33+E43)</f>
-        <v>7</v>
+        <v>59.833333333333336</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -1784,75 +1899,125 @@
       <c r="A46" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="23"/>
+      <c r="B46" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C46" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="D46" s="23">
+        <v>1</v>
+      </c>
       <c r="E46" s="9">
         <f>(B46-C46)*-24-D46</f>
-        <v>0</v>
-      </c>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
+        <v>7</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>145</v>
+      </c>
       <c r="H46" s="12"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="14"/>
+      <c r="B47" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C47" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="D47" s="14">
+        <v>1</v>
+      </c>
       <c r="E47" s="9">
         <f t="shared" ref="E47:E52" si="4">(B47-C47)*-24-D47</f>
-        <v>0</v>
-      </c>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
+        <v>7</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>145</v>
+      </c>
       <c r="H47" s="12"/>
     </row>
     <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="14"/>
+      <c r="B48" s="13">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="C48" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="D48" s="14">
+        <v>1</v>
+      </c>
       <c r="E48" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
+        <v>5.3333333333333339</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>145</v>
+      </c>
       <c r="H48" s="12"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="14"/>
+      <c r="B49" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C49" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="D49" s="14">
+        <v>1</v>
+      </c>
       <c r="E49" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
+        <v>7</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>145</v>
+      </c>
       <c r="H49" s="12"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="14"/>
+      <c r="B50" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C50" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="D50" s="14">
+        <v>1</v>
+      </c>
       <c r="E50" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
+        <v>7</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>145</v>
+      </c>
       <c r="H50" s="12"/>
     </row>
     <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1894,7 +2059,7 @@
       </c>
       <c r="E53" s="21">
         <f>SUM(E46:E52)</f>
-        <v>0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -1909,7 +2074,7 @@
       </c>
       <c r="E54" s="22">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>7</v>
+        <v>93.166666666666671</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -2070,7 +2235,7 @@
       </c>
       <c r="E64" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>7</v>
+        <v>93.166666666666671</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -2121,43 +2286,62 @@
       <c r="A67" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="14"/>
+      <c r="B67" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C67" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="D67" s="14">
+        <v>1</v>
+      </c>
       <c r="E67" s="9">
         <f t="shared" ref="E67:E72" si="6">(B67-C67)*-24-D67</f>
-        <v>0</v>
-      </c>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
+        <v>7</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>147</v>
+      </c>
       <c r="H67" s="12"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="14"/>
+      <c r="B68" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C68" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="D68" s="14">
+        <v>1</v>
+      </c>
       <c r="E68" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
+        <v>7</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>148</v>
+      </c>
       <c r="H68" s="12"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B69" s="13"/>
+      <c r="B69" s="13">
+        <v>0.5</v>
+      </c>
       <c r="C69" s="13"/>
       <c r="D69" s="14"/>
-      <c r="E69" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="E69" s="9"/>
       <c r="F69" s="12"/>
       <c r="G69" s="12"/>
       <c r="H69" s="12"/>
@@ -2216,7 +2400,7 @@
       </c>
       <c r="E73" s="27">
         <f>SUM(E66:E72)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -2231,7 +2415,7 @@
       </c>
       <c r="E74" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>7</v>
+        <v>107.16666666666667</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -2392,7 +2576,7 @@
       </c>
       <c r="E84" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>7</v>
+        <v>107.16666666666667</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -2553,7 +2737,7 @@
       </c>
       <c r="E94" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>7</v>
+        <v>107.16666666666667</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -2714,7 +2898,7 @@
       </c>
       <c r="E104" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>7</v>
+        <v>107.16666666666667</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -2875,7 +3059,7 @@
       </c>
       <c r="E114" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>7</v>
+        <v>107.16666666666667</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3036,7 +3220,7 @@
       </c>
       <c r="E124" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>7</v>
+        <v>107.16666666666667</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3197,7 +3381,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>7</v>
+        <v>107.16666666666667</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3358,7 +3542,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>7</v>
+        <v>107.16666666666667</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3519,7 +3703,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>7</v>
+        <v>107.16666666666667</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3679,7 +3863,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>7</v>
+        <v>107.16666666666667</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -3840,7 +4024,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>7</v>
+        <v>107.16666666666667</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4001,7 +4185,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>7</v>
+        <v>107.16666666666667</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
